--- a/data/FossilTimeSeries.xlsx
+++ b/data/FossilTimeSeries.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carmen/Dropbox/INDITEK_cermeno/inditek_FINAL/CODE/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carmen/Documents/INDITEK_cermeno/fromPEDRO/FINAL_OUTPUTS/INDITEK-mainFINAL/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F796A8F6-791A-F040-B11C-024916FB3005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1CCD4C-04A2-6844-8C7F-BF421B27C3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="6740" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="8600" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OriginalScans" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +43,7 @@
     <t>Alroy Fig3 2010</t>
   </si>
   <si>
-    <t>Sepkoski from Stanley Fig1B 2007</t>
+    <t>Sepkoski from http://strata.geology.wisc.edu/jack/ (Invertebrates only)</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,13 +476,13 @@
     <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="1015" width="10.6640625" style="1" customWidth="1"/>
     <col min="1016" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,14 +495,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>-538.678</v>
       </c>
@@ -515,14 +515,14 @@
       <c r="D2" s="1">
         <v>212.21899999999999</v>
       </c>
-      <c r="E2" s="1">
-        <v>-516.048</v>
-      </c>
-      <c r="F2" s="1">
-        <v>50.251300000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>-513</v>
+      </c>
+      <c r="F2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>-531.71199999999999</v>
       </c>
@@ -535,14 +535,14 @@
       <c r="D3" s="1">
         <v>236.334</v>
       </c>
-      <c r="E3" s="1">
-        <v>-513.78</v>
-      </c>
-      <c r="F3" s="1">
-        <v>288.94499999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>-507</v>
+      </c>
+      <c r="F3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>-529.39099999999996</v>
       </c>
@@ -555,14 +555,14 @@
       <c r="D4" s="1">
         <v>321.54300000000001</v>
       </c>
-      <c r="E4" s="1">
-        <v>-511.512</v>
-      </c>
-      <c r="F4" s="1">
-        <v>263.81900000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>-504</v>
+      </c>
+      <c r="F4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>-521.26400000000001</v>
       </c>
@@ -575,14 +575,14 @@
       <c r="D5" s="1">
         <v>270.096</v>
       </c>
-      <c r="E5" s="1">
-        <v>-508.10899999999998</v>
-      </c>
-      <c r="F5" s="1">
-        <v>402.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>-501</v>
+      </c>
+      <c r="F5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>-520.10299999999995</v>
       </c>
@@ -595,14 +595,14 @@
       <c r="D6" s="1">
         <v>273.31200000000001</v>
       </c>
-      <c r="E6" s="1">
-        <v>-502.43799999999999</v>
-      </c>
-      <c r="F6" s="1">
-        <v>314.07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>-495</v>
+      </c>
+      <c r="F6">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>-517.78099999999995</v>
       </c>
@@ -615,14 +615,14 @@
       <c r="D7" s="1">
         <v>270.096</v>
       </c>
-      <c r="E7" s="1">
-        <v>-501.30399999999997</v>
-      </c>
-      <c r="F7" s="1">
-        <v>464.82400000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>-493</v>
+      </c>
+      <c r="F7">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>-515.45899999999995</v>
       </c>
@@ -635,14 +635,14 @@
       <c r="D8" s="1">
         <v>381.029</v>
       </c>
-      <c r="E8" s="1">
-        <v>-486.56</v>
-      </c>
-      <c r="F8" s="1">
-        <v>414.57299999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>-488.3</v>
+      </c>
+      <c r="F8">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>-513.13699999999994</v>
       </c>
@@ -655,14 +655,14 @@
       <c r="D9" s="1">
         <v>398.714</v>
       </c>
-      <c r="E9" s="1">
-        <v>-480.88900000000001</v>
-      </c>
-      <c r="F9" s="1">
-        <v>414.57299999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>-485</v>
+      </c>
+      <c r="F9">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>-511.976</v>
       </c>
@@ -675,14 +675,14 @@
       <c r="D10" s="1">
         <v>220.25700000000001</v>
       </c>
-      <c r="E10" s="1">
-        <v>-471.81599999999997</v>
-      </c>
-      <c r="F10" s="1">
-        <v>891.96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>-470</v>
+      </c>
+      <c r="F10">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>-507.33300000000003</v>
       </c>
@@ -695,14 +695,14 @@
       <c r="D11" s="1">
         <v>281.35000000000002</v>
       </c>
-      <c r="E11" s="1">
-        <v>-461.608</v>
-      </c>
-      <c r="F11" s="1">
-        <v>891.96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>-464</v>
+      </c>
+      <c r="F11">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>-505.01100000000002</v>
       </c>
@@ -715,14 +715,14 @@
       <c r="D12" s="1">
         <v>191.31800000000001</v>
       </c>
-      <c r="E12" s="1">
-        <v>-458.20499999999998</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1344.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>-458</v>
+      </c>
+      <c r="F12">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>-502.68900000000002</v>
       </c>
@@ -735,14 +735,14 @@
       <c r="D13" s="1">
         <v>249.196</v>
       </c>
-      <c r="E13" s="1">
-        <v>-449.13200000000001</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1683.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>-449</v>
+      </c>
+      <c r="F13">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>-500.36700000000002</v>
       </c>
@@ -755,14 +755,14 @@
       <c r="D14" s="1">
         <v>236.334</v>
       </c>
-      <c r="E14" s="1">
-        <v>-445.73</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1444.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>-443.7</v>
+      </c>
+      <c r="F14">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>-498.04500000000002</v>
       </c>
@@ -775,14 +775,14 @@
       <c r="D15" s="1">
         <v>270.096</v>
       </c>
-      <c r="E15" s="1">
-        <v>-441.19299999999998</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1733.67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>-428.2</v>
+      </c>
+      <c r="F15">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>-496.88400000000001</v>
       </c>
@@ -795,14 +795,14 @@
       <c r="D16" s="1">
         <v>397.10599999999999</v>
       </c>
-      <c r="E16" s="1">
-        <v>-437.79</v>
-      </c>
-      <c r="F16" s="1">
-        <v>879.39700000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>-422.9</v>
+      </c>
+      <c r="F16">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>-494.56200000000001</v>
       </c>
@@ -815,14 +815,14 @@
       <c r="D17" s="1">
         <v>348.875</v>
       </c>
-      <c r="E17" s="1">
-        <v>-427.58300000000003</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1118.0899999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>-418.7</v>
+      </c>
+      <c r="F17">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>-486.43599999999998</v>
       </c>
@@ -835,14 +835,14 @@
       <c r="D18" s="1">
         <v>168.81</v>
       </c>
-      <c r="E18" s="1">
-        <v>-421.91199999999998</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1683.42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>-416</v>
+      </c>
+      <c r="F18">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>-484.11399999999998</v>
       </c>
@@ -855,14 +855,14 @@
       <c r="D19" s="1">
         <v>194.53399999999999</v>
       </c>
-      <c r="E19" s="1">
-        <v>-416.24099999999999</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1620.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>-411.2</v>
+      </c>
+      <c r="F19">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>-480.63099999999997</v>
       </c>
@@ -875,14 +875,14 @@
       <c r="D20" s="1">
         <v>244.37299999999999</v>
       </c>
-      <c r="E20" s="1">
-        <v>-411.70400000000001</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1218.5899999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>-407</v>
+      </c>
+      <c r="F20">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>-478.30900000000003</v>
       </c>
@@ -895,14 +895,14 @@
       <c r="D21" s="1">
         <v>294.21199999999999</v>
       </c>
-      <c r="E21" s="1">
-        <v>-394.69200000000001</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1984.92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>-397.5</v>
+      </c>
+      <c r="F21">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>-477.14800000000002</v>
       </c>
@@ -915,14 +915,14 @@
       <c r="D22" s="1">
         <v>163.98699999999999</v>
       </c>
-      <c r="E22" s="1">
-        <v>-383.35</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1846.73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>-391.8</v>
+      </c>
+      <c r="F22">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>-472.50400000000002</v>
       </c>
@@ -935,14 +935,14 @@
       <c r="D23" s="1">
         <v>139.87100000000001</v>
       </c>
-      <c r="E23" s="1">
-        <v>-361.80099999999999</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1055.28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>-385.3</v>
+      </c>
+      <c r="F23">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>-470.18200000000002</v>
       </c>
@@ -955,14 +955,14 @@
       <c r="D24" s="1">
         <v>154.34100000000001</v>
       </c>
-      <c r="E24" s="1">
-        <v>-352.72699999999998</v>
-      </c>
-      <c r="F24" s="1">
-        <v>954.774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>-374.5</v>
+      </c>
+      <c r="F24">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>-467.86099999999999</v>
       </c>
@@ -975,14 +975,14 @@
       <c r="D25" s="1">
         <v>326.36700000000002</v>
       </c>
-      <c r="E25" s="1">
-        <v>-327.77600000000001</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1532.66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>-359.2</v>
+      </c>
+      <c r="F25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>-464.37799999999999</v>
       </c>
@@ -995,14 +995,14 @@
       <c r="D26" s="1">
         <v>307.07400000000001</v>
       </c>
-      <c r="E26" s="1">
-        <v>-320.971</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1268.8399999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>-345.3</v>
+      </c>
+      <c r="F26">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>-459.73399999999998</v>
       </c>
@@ -1015,14 +1015,14 @@
       <c r="D27" s="1">
         <v>245.98099999999999</v>
       </c>
-      <c r="E27" s="1">
-        <v>-318.702</v>
-      </c>
-      <c r="F27" s="1">
-        <v>979.899</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>-326.39999999999998</v>
+      </c>
+      <c r="F27">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>-451.60700000000003</v>
       </c>
@@ -1035,14 +1035,14 @@
       <c r="D28" s="1">
         <v>286.17399999999998</v>
       </c>
-      <c r="E28" s="1">
-        <v>-306.226</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1055.28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>-318.10000000000002</v>
+      </c>
+      <c r="F28">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>-449.28500000000003</v>
       </c>
@@ -1055,14 +1055,14 @@
       <c r="D29" s="1">
         <v>303.85899999999998</v>
       </c>
-      <c r="E29" s="1">
-        <v>-301.69</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1168.3399999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>-311.7</v>
+      </c>
+      <c r="F29">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>-445.803</v>
       </c>
@@ -1075,14 +1075,14 @@
       <c r="D30" s="1">
         <v>392.28300000000002</v>
       </c>
-      <c r="E30" s="1">
-        <v>-297.15300000000002</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1092.96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>-306.5</v>
+      </c>
+      <c r="F30">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>-441.15899999999999</v>
       </c>
@@ -1095,14 +1095,14 @@
       <c r="D31" s="1">
         <v>374.59800000000001</v>
       </c>
-      <c r="E31" s="1">
-        <v>-283.54300000000001</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1155.78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>-299</v>
+      </c>
+      <c r="F31">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>-436.51499999999999</v>
       </c>
@@ -1115,14 +1115,14 @@
       <c r="D32" s="1">
         <v>426.04500000000002</v>
       </c>
-      <c r="E32" s="1">
-        <v>-274.47000000000003</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1118.0899999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>-294.60000000000002</v>
+      </c>
+      <c r="F32">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>-429.54899999999998</v>
       </c>
@@ -1135,14 +1135,14 @@
       <c r="D33" s="1">
         <v>344.05099999999999</v>
       </c>
-      <c r="E33" s="1">
-        <v>-263.12799999999999</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1331.66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>-284.39999999999998</v>
+      </c>
+      <c r="F33">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>-424.90600000000001</v>
       </c>
@@ -1155,14 +1155,14 @@
       <c r="D34" s="1">
         <v>352.09</v>
       </c>
-      <c r="E34" s="1">
-        <v>-258.59100000000001</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1293.97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>-270.60000000000002</v>
+      </c>
+      <c r="F34">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>-422.584</v>
       </c>
@@ -1175,14 +1175,14 @@
       <c r="D35" s="1">
         <v>395.49799999999999</v>
       </c>
-      <c r="E35" s="1">
-        <v>-254.05500000000001</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1444.72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>-260.39999999999998</v>
+      </c>
+      <c r="F35">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>-420.262</v>
       </c>
@@ -1195,14 +1195,14 @@
       <c r="D36" s="1">
         <v>400.322</v>
       </c>
-      <c r="E36" s="1">
-        <v>-250.65199999999999</v>
-      </c>
-      <c r="F36" s="1">
-        <v>954.774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>-251</v>
+      </c>
+      <c r="F36">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>-417.94</v>
       </c>
@@ -1215,14 +1215,14 @@
       <c r="D37" s="1">
         <v>498.392</v>
       </c>
-      <c r="E37" s="1">
-        <v>-244.98099999999999</v>
-      </c>
-      <c r="F37" s="1">
-        <v>515.07500000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>-249.7</v>
+      </c>
+      <c r="F37">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>-412.13499999999999</v>
       </c>
@@ -1235,14 +1235,14 @@
       <c r="D38" s="1">
         <v>477.49200000000002</v>
       </c>
-      <c r="E38" s="1">
-        <v>-230.23699999999999</v>
-      </c>
-      <c r="F38" s="1">
-        <v>690.95500000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>-245</v>
+      </c>
+      <c r="F38">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>-405.17</v>
       </c>
@@ -1255,14 +1255,14 @@
       <c r="D39" s="1">
         <v>483.923</v>
       </c>
-      <c r="E39" s="1">
-        <v>-221.16399999999999</v>
-      </c>
-      <c r="F39" s="1">
-        <v>979.899</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>-237</v>
+      </c>
+      <c r="F39">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>-397.04300000000001</v>
       </c>
@@ -1275,14 +1275,14 @@
       <c r="D40" s="1">
         <v>413.18299999999999</v>
       </c>
-      <c r="E40" s="1">
-        <v>-216.62700000000001</v>
-      </c>
-      <c r="F40" s="1">
-        <v>841.70899999999995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>-228</v>
+      </c>
+      <c r="F40">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>-392.399</v>
       </c>
@@ -1295,434 +1295,434 @@
       <c r="D41" s="1">
         <v>448.553</v>
       </c>
-      <c r="E41" s="1">
-        <v>-207.553</v>
-      </c>
-      <c r="F41" s="1">
-        <v>829.14599999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>-216.5</v>
+      </c>
+      <c r="F41">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>-386.59399999999999</v>
       </c>
       <c r="B42" s="1">
         <v>1305.8599999999999</v>
       </c>
-      <c r="E42" s="1">
-        <v>-199.614</v>
-      </c>
-      <c r="F42" s="1">
-        <v>552.76400000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>-199.6</v>
+      </c>
+      <c r="F42">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>-383.11200000000002</v>
       </c>
       <c r="B43" s="1">
         <v>1202.17</v>
       </c>
-      <c r="E43" s="1">
-        <v>-189.40700000000001</v>
-      </c>
-      <c r="F43" s="1">
-        <v>917.08500000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>-196.5</v>
+      </c>
+      <c r="F43">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>-380.79</v>
       </c>
       <c r="B44" s="1">
         <v>777.98</v>
       </c>
-      <c r="E44" s="1">
-        <v>-175.797</v>
-      </c>
-      <c r="F44" s="1">
-        <v>891.96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>-189.6</v>
+      </c>
+      <c r="F44">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>-372.66300000000001</v>
       </c>
       <c r="B45" s="1">
         <v>796.83199999999999</v>
       </c>
-      <c r="E45" s="1">
-        <v>-164.45500000000001</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1319.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>-183</v>
+      </c>
+      <c r="F45">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>-366.858</v>
       </c>
       <c r="B46" s="1">
         <v>702.56899999999996</v>
       </c>
-      <c r="E46" s="1">
-        <v>-157.65</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1344.22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>-175.6</v>
+      </c>
+      <c r="F46">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>-362.21499999999997</v>
       </c>
       <c r="B47" s="1">
         <v>749.70100000000002</v>
       </c>
-      <c r="E47" s="1">
-        <v>-151.97900000000001</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1532.66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>-171.6</v>
+      </c>
+      <c r="F47">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>-356.41</v>
       </c>
       <c r="B48" s="1">
         <v>957.08100000000002</v>
       </c>
-      <c r="E48" s="1">
-        <v>-147.44200000000001</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1457.29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>-167.7</v>
+      </c>
+      <c r="F48">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>-347.12200000000001</v>
       </c>
       <c r="B49" s="1">
         <v>957.08100000000002</v>
       </c>
-      <c r="E49" s="1">
-        <v>-145.17400000000001</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1319.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>-164.7</v>
+      </c>
+      <c r="F49">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>-342.47899999999998</v>
       </c>
       <c r="B50" s="1">
         <v>843.96400000000006</v>
       </c>
-      <c r="E50" s="1">
-        <v>-140.637</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1419.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>-161.19999999999999</v>
+      </c>
+      <c r="F50">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>-335.51299999999998</v>
       </c>
       <c r="B51" s="1">
         <v>985.36</v>
       </c>
-      <c r="E51" s="1">
-        <v>-137.23500000000001</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1218.5899999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>-155.69999999999999</v>
+      </c>
+      <c r="F51">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>-323.90300000000002</v>
       </c>
       <c r="B52" s="1">
         <v>928.80200000000002</v>
       </c>
-      <c r="E52" s="1">
-        <v>-131.56399999999999</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1356.78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>-150.80000000000001</v>
+      </c>
+      <c r="F52">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>-313.45499999999998</v>
       </c>
       <c r="B53" s="1">
         <v>1032.49</v>
       </c>
-      <c r="E53" s="1">
-        <v>-123.625</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1419.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>-145.5</v>
+      </c>
+      <c r="F53">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>-306.48899999999998</v>
       </c>
       <c r="B54" s="1">
         <v>975.93399999999997</v>
       </c>
-      <c r="E54" s="1">
-        <v>-115.68600000000001</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1695.98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>-140.19999999999999</v>
+      </c>
+      <c r="F54">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>-297.202</v>
       </c>
       <c r="B55" s="1">
         <v>1079.6199999999999</v>
       </c>
-      <c r="E55" s="1">
-        <v>-102.075</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1532.66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>-136.4</v>
+      </c>
+      <c r="F55">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>-292.55799999999999</v>
       </c>
       <c r="B56" s="1">
         <v>1192.74</v>
       </c>
-      <c r="E56" s="1">
-        <v>-95.270399999999995</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1758.79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>-130</v>
+      </c>
+      <c r="F56">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>-284.43099999999998</v>
       </c>
       <c r="B57" s="1">
         <v>1334.14</v>
       </c>
-      <c r="E57" s="1">
-        <v>-91.867900000000006</v>
-      </c>
-      <c r="F57" s="1">
-        <v>2185.9299999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>-125</v>
+      </c>
+      <c r="F57">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>-269.339</v>
       </c>
       <c r="B58" s="1">
         <v>1334.14</v>
       </c>
-      <c r="E58" s="1">
-        <v>-81.660399999999996</v>
-      </c>
-      <c r="F58" s="1">
-        <v>2324.12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>-112</v>
+      </c>
+      <c r="F58">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>-265.85599999999999</v>
       </c>
       <c r="B59" s="1">
         <v>1202.17</v>
       </c>
-      <c r="E59" s="1">
-        <v>-70.318700000000007</v>
-      </c>
-      <c r="F59" s="1">
-        <v>2650.75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>-99.6</v>
+      </c>
+      <c r="F59">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>-261.21199999999999</v>
       </c>
       <c r="B60" s="1">
         <v>1136.18</v>
       </c>
-      <c r="E60" s="1">
-        <v>-64.647800000000004</v>
-      </c>
-      <c r="F60" s="1">
-        <v>3002.51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>-93.5</v>
+      </c>
+      <c r="F60">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>-255.40799999999999</v>
       </c>
       <c r="B61" s="1">
         <v>985.36</v>
       </c>
-      <c r="E61" s="1">
-        <v>-58.976900000000001</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1997.49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>-89.3</v>
+      </c>
+      <c r="F61">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>-250.76400000000001</v>
       </c>
       <c r="B62" s="1">
         <v>419.77699999999999</v>
       </c>
-      <c r="E62" s="1">
-        <v>-44.232700000000001</v>
-      </c>
-      <c r="F62" s="1">
-        <v>3140.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>-85.8</v>
+      </c>
+      <c r="F62">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>-246.12</v>
       </c>
       <c r="B63" s="1">
         <v>608.30499999999995</v>
       </c>
-      <c r="E63" s="1">
-        <v>-37.427700000000002</v>
-      </c>
-      <c r="F63" s="1">
-        <v>3203.52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>-83.5</v>
+      </c>
+      <c r="F63">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>-242.637</v>
       </c>
       <c r="B64" s="1">
         <v>636.58399999999995</v>
       </c>
-      <c r="E64" s="1">
-        <v>-31.756799999999998</v>
-      </c>
-      <c r="F64" s="1">
-        <v>3592.96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>-70.599999999999994</v>
+      </c>
+      <c r="F64">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>-239.155</v>
       </c>
       <c r="B65" s="1">
         <v>749.70100000000002</v>
       </c>
-      <c r="E65" s="1">
-        <v>-27.220099999999999</v>
-      </c>
-      <c r="F65" s="1">
-        <v>3404.52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>-65.5</v>
+      </c>
+      <c r="F65">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>-236.833</v>
       </c>
       <c r="B66" s="1">
         <v>608.30499999999995</v>
       </c>
-      <c r="E66" s="1">
-        <v>-20.415099999999999</v>
-      </c>
-      <c r="F66" s="1">
-        <v>3542.71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>-55.8</v>
+      </c>
+      <c r="F66">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>-233.35</v>
       </c>
       <c r="B67" s="1">
         <v>881.67</v>
       </c>
-      <c r="E67" s="1">
-        <v>-19.280899999999999</v>
-      </c>
-      <c r="F67" s="1">
-        <v>4309.05</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>-33.9</v>
+      </c>
+      <c r="F67">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>-228.70599999999999</v>
       </c>
       <c r="B68" s="1">
         <v>825.11199999999997</v>
       </c>
-      <c r="E68" s="1">
-        <v>-11.341699999999999</v>
-      </c>
-      <c r="F68" s="1">
-        <v>4484.92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>-23</v>
+      </c>
+      <c r="F68">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>-226.38399999999999</v>
       </c>
       <c r="B69" s="1">
         <v>900.52300000000002</v>
       </c>
-      <c r="E69" s="1">
-        <v>-5.6708600000000002</v>
-      </c>
-      <c r="F69" s="1">
-        <v>4510.05</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>-5.3</v>
+      </c>
+      <c r="F69">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>-218.25800000000001</v>
       </c>
       <c r="B70" s="1">
         <v>796.83199999999999</v>
       </c>
-      <c r="E70" s="1">
-        <v>1.1341699999999999</v>
-      </c>
-      <c r="F70" s="1">
-        <v>4962.3100000000004</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>-1.8</v>
+      </c>
+      <c r="F70">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>-211.292</v>
       </c>
       <c r="B71" s="1">
         <v>806.25900000000001</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71" s="1">
-        <v>4974.87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>-206.648</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>683.71600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>-202.00399999999999</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>598.87800000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>-192.71700000000001</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>655.43700000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>-182.268</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>740.274</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>-177.624</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>655.43700000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>-171.82</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>674.28899999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>-169.49799999999999</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>853.39099999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>-162.53200000000001</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>1070.2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>-154.40600000000001</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>985.36</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>-149.762</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>919.37599999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>-143.95699999999999</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>1032.49</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>-139.31299999999999</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>900.52300000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>-132.34800000000001</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>919.37599999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>-124.221</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>966.50800000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>-121.899</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>1107.9000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>-117.255</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>1023.07</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>-110.29</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>1145.6099999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>-104.485</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>1060.77</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>-96.358400000000003</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>1136.18</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>-91.714600000000004</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>1107.9000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>-89.392700000000005</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>1070.2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>-85.909899999999993</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>1023.07</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>-80.105199999999996</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>1117.33</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>-77.783299999999997</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>1202.17</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>-71.978499999999997</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>1202.17</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>-68.495699999999999</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>1296.43</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>-65.012900000000002</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>1720.62</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>-62.691000000000003</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>1258.73</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>-58.047199999999997</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>1173.8900000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>-54.564399999999999</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>1437.83</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>-49.9206</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>1390.7</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>-45.276800000000001</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>1532.09</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>-41.793999999999997</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>1616.93</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>-35.9893</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1730.05</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>-30.1845</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>1626.36</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>-19.7361</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>1635.78</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>-18.575099999999999</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>1824.31</v>
       </c>
     </row>
-    <row r="109" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>-15.0923</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1843.16</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>-8.1266099999999994</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>1692.34</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>-3.4828299999999999</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>1682.91</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>-1.1609400000000001</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>1522.66</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>0</v>
       </c>
